--- a/mhxyHelper/config/信息整理.xlsx
+++ b/mhxyHelper/config/信息整理.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13160" windowHeight="10480"/>
+    <workbookView windowWidth="28800" windowHeight="12140" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="价格类" sheetId="1" r:id="rId1"/>
+    <sheet name="属性类" sheetId="2" r:id="rId2"/>
+    <sheet name="打法整理" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="357">
   <si>
     <t>q_name</t>
   </si>
@@ -584,6 +584,618 @@
   </si>
   <si>
     <t>140手镯</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>80武器</t>
+  </si>
+  <si>
+    <t>普通打造：命中(290-377)，伤害(250-325)
+强化打造：命中(304-395)，伤害(260-341)</t>
+  </si>
+  <si>
+    <t>90武器</t>
+  </si>
+  <si>
+    <t>普通打造：命中(325-422)，伤害(280-364)
+强化打造：命中(341-443)，伤害(294-382)</t>
+  </si>
+  <si>
+    <t>100武器</t>
+  </si>
+  <si>
+    <t>普通打造：命中(360~468)，伤害(310~403)
+强化打造：命中(378~491)，伤害(325~423)</t>
+  </si>
+  <si>
+    <t>110武器</t>
+  </si>
+  <si>
+    <t>普通打造：命中(395~513)，伤害(340~442)
+强化打造：命中(414~538)，伤害(357~464)</t>
+  </si>
+  <si>
+    <t>120武器</t>
+  </si>
+  <si>
+    <t>普通打造：命中(430~559)，伤害(370~481)
+强化打造：命中(451~586)，伤害(388~505)</t>
+  </si>
+  <si>
+    <t>130武器</t>
+  </si>
+  <si>
+    <t>普通打造：命中(465~604)，伤害(400~520)
+强化打造：命中(488~634)，伤害(420~546)</t>
+  </si>
+  <si>
+    <t>140武器</t>
+  </si>
+  <si>
+    <t>普通打造：命中(500~650)，伤害(430~559)
+强化打造：命中(525~682)，伤害(451~586)</t>
+  </si>
+  <si>
+    <t>150武器</t>
+  </si>
+  <si>
+    <t>普通打造：命中(535~695)，伤害(460~598)
+强化打造：命中(561~729)，伤害(483~627)</t>
+  </si>
+  <si>
+    <t>160武器</t>
+  </si>
+  <si>
+    <t>强化打造：命中(571-777)；伤害(490-667)</t>
+  </si>
+  <si>
+    <t>衣服</t>
+  </si>
+  <si>
+    <t>160衣服</t>
+  </si>
+  <si>
+    <t>强化打造：(249-340)防御</t>
+  </si>
+  <si>
+    <t>150衣服</t>
+  </si>
+  <si>
+    <t>强化打造：(246~320)防御</t>
+  </si>
+  <si>
+    <t>140衣服</t>
+  </si>
+  <si>
+    <t>强化打造：(231~300)防御</t>
+  </si>
+  <si>
+    <t>130衣服</t>
+  </si>
+  <si>
+    <t>强化打造：(215~279)防御</t>
+  </si>
+  <si>
+    <t>120衣服</t>
+  </si>
+  <si>
+    <t>强化打造：(199~259)防御</t>
+  </si>
+  <si>
+    <t>110衣服</t>
+  </si>
+  <si>
+    <t>强化打造：(183~238)防御</t>
+  </si>
+  <si>
+    <t>100衣服</t>
+  </si>
+  <si>
+    <t>强化打造：(168~218)防御</t>
+  </si>
+  <si>
+    <t>90衣服</t>
+  </si>
+  <si>
+    <t>强化打造：(152~197)防御</t>
+  </si>
+  <si>
+    <t>80衣服</t>
+  </si>
+  <si>
+    <t>强化打造：(136-177)防御</t>
+  </si>
+  <si>
+    <t>鞋子</t>
+  </si>
+  <si>
+    <t>160鞋子</t>
+  </si>
+  <si>
+    <t>115+70</t>
+  </si>
+  <si>
+    <t>强化打造：防御(84-115)；敏捷(52-70)</t>
+  </si>
+  <si>
+    <t>150鞋子</t>
+  </si>
+  <si>
+    <t>109+67</t>
+  </si>
+  <si>
+    <t>强化打造：防御(84~109)，敏捷(52~67)</t>
+  </si>
+  <si>
+    <t>140鞋子</t>
+  </si>
+  <si>
+    <t>101+63</t>
+  </si>
+  <si>
+    <t>强化打造：防御(78~101)，敏捷(49~63)</t>
+  </si>
+  <si>
+    <t>130鞋子</t>
+  </si>
+  <si>
+    <t>95+59</t>
+  </si>
+  <si>
+    <t>强化打造：防御(73~95)，敏捷(46~59)</t>
+  </si>
+  <si>
+    <t>120鞋子</t>
+  </si>
+  <si>
+    <t>88+55</t>
+  </si>
+  <si>
+    <t>强化打造：防御(68~88)，敏捷(43~55)</t>
+  </si>
+  <si>
+    <t>110鞋子</t>
+  </si>
+  <si>
+    <t>81+50</t>
+  </si>
+  <si>
+    <t>强化打造：防御(63~81)，敏捷(39~50)</t>
+  </si>
+  <si>
+    <t>100鞋子</t>
+  </si>
+  <si>
+    <t>74+46</t>
+  </si>
+  <si>
+    <t>强化打造：防御(57~74)，敏捷(36~46)</t>
+  </si>
+  <si>
+    <t>90鞋子</t>
+  </si>
+  <si>
+    <t>68+42</t>
+  </si>
+  <si>
+    <t>强化打造：防御(52~68)，敏捷(33~42)</t>
+  </si>
+  <si>
+    <t>80鞋子</t>
+  </si>
+  <si>
+    <t>60+39</t>
+  </si>
+  <si>
+    <t>强化打造：防御(47~60)，敏捷(30~39)</t>
+  </si>
+  <si>
+    <t>项链</t>
+  </si>
+  <si>
+    <t>160项链</t>
+  </si>
+  <si>
+    <t>强化打造：(196-267)灵力</t>
+  </si>
+  <si>
+    <t>150项链</t>
+  </si>
+  <si>
+    <t>强化打造：(194~252)灵力</t>
+  </si>
+  <si>
+    <t>140项链</t>
+  </si>
+  <si>
+    <t>强化打造：(181~235)灵力</t>
+  </si>
+  <si>
+    <t>130项链</t>
+  </si>
+  <si>
+    <t>强化打造：(169~219)灵力</t>
+  </si>
+  <si>
+    <t>120项链</t>
+  </si>
+  <si>
+    <t>强化打造：(156~202)灵力</t>
+  </si>
+  <si>
+    <t>110项链</t>
+  </si>
+  <si>
+    <t>强化打造：(143~186)灵力</t>
+  </si>
+  <si>
+    <t>100项链</t>
+  </si>
+  <si>
+    <t>强化打造：(131~170)灵力</t>
+  </si>
+  <si>
+    <t>90项链</t>
+  </si>
+  <si>
+    <t>强化打造：(118~153)灵力</t>
+  </si>
+  <si>
+    <t>80项链</t>
+  </si>
+  <si>
+    <t>强化打造：(106-137)灵力</t>
+  </si>
+  <si>
+    <t>腰带</t>
+  </si>
+  <si>
+    <t>160腰带</t>
+  </si>
+  <si>
+    <t>115+449</t>
+  </si>
+  <si>
+    <t>强化打造：(84-115)防御，(329-449)气血</t>
+  </si>
+  <si>
+    <t>150腰带</t>
+  </si>
+  <si>
+    <t>109+423</t>
+  </si>
+  <si>
+    <t>强化打造：(84~109)防御，(325~423)气血</t>
+  </si>
+  <si>
+    <t>140腰带</t>
+  </si>
+  <si>
+    <t>101+395</t>
+  </si>
+  <si>
+    <t>强化打造：(78~101)防御，(304~395)气血</t>
+  </si>
+  <si>
+    <t>130腰带</t>
+  </si>
+  <si>
+    <t>95+368</t>
+  </si>
+  <si>
+    <t>强化打造：(73~95)防御，(283~368)气血</t>
+  </si>
+  <si>
+    <t>120腰带</t>
+  </si>
+  <si>
+    <t>88+341</t>
+  </si>
+  <si>
+    <t>强化打造：(68~88)防御，(262~341)气血</t>
+  </si>
+  <si>
+    <t>110腰带</t>
+  </si>
+  <si>
+    <t>81+313</t>
+  </si>
+  <si>
+    <t>强化打造：(63~81)防御，(241~313)气血</t>
+  </si>
+  <si>
+    <t>100腰带</t>
+  </si>
+  <si>
+    <t>74+286</t>
+  </si>
+  <si>
+    <t>强化打造：(57~74)防御，(220~286)气血</t>
+  </si>
+  <si>
+    <t>90腰带</t>
+  </si>
+  <si>
+    <t>68+258</t>
+  </si>
+  <si>
+    <t>强化打造：(52~68)防御，(199~258)气血</t>
+  </si>
+  <si>
+    <t>80腰带</t>
+  </si>
+  <si>
+    <t>60+231</t>
+  </si>
+  <si>
+    <t>强化打造：(47~60)防御，(178~231)气血</t>
+  </si>
+  <si>
+    <t>帽子</t>
+  </si>
+  <si>
+    <t>160帽子</t>
+  </si>
+  <si>
+    <t>115+224</t>
+  </si>
+  <si>
+    <t>强化打造：防御(84-115)；魔法(163-224)</t>
+  </si>
+  <si>
+    <t>150帽子</t>
+  </si>
+  <si>
+    <t>109+211</t>
+  </si>
+  <si>
+    <t>强化打造：防御(84~109)，魔法(162~211)</t>
+  </si>
+  <si>
+    <t>140帽子</t>
+  </si>
+  <si>
+    <t>101+197</t>
+  </si>
+  <si>
+    <t>强化打造：防御(78~101)，魔法(152~197)</t>
+  </si>
+  <si>
+    <t>130帽子</t>
+  </si>
+  <si>
+    <t>95+184</t>
+  </si>
+  <si>
+    <t>强化打造：防御(73~95)，魔法(141~184)</t>
+  </si>
+  <si>
+    <t>120帽子</t>
+  </si>
+  <si>
+    <t>88+170</t>
+  </si>
+  <si>
+    <t>强化打造：防御(68-88)，魔法(131-170)</t>
+  </si>
+  <si>
+    <t>110帽子</t>
+  </si>
+  <si>
+    <t>81+156</t>
+  </si>
+  <si>
+    <t>强化打造：防御(63~81)，魔法(120~156)</t>
+  </si>
+  <si>
+    <t>100帽子</t>
+  </si>
+  <si>
+    <t>74+143</t>
+  </si>
+  <si>
+    <t>强化打造：防御(57~74)，魔法(110~143)</t>
+  </si>
+  <si>
+    <t>90帽子</t>
+  </si>
+  <si>
+    <t>68+129</t>
+  </si>
+  <si>
+    <t>强化打造：防御(52~68)，魔法(99~129)</t>
+  </si>
+  <si>
+    <t>80帽子</t>
+  </si>
+  <si>
+    <t>60+116</t>
+  </si>
+  <si>
+    <t>强化打造：防御(47~60)，魔法(89~116)</t>
+  </si>
+  <si>
+    <t>戒指</t>
+  </si>
+  <si>
+    <t>18+9</t>
+  </si>
+  <si>
+    <t>基础属性：(12—18)物理伤害或物理防御
+附加属性：(6-9)伤害、法术伤害、固定伤害、封印命中等级、法术暴击等级、物理暴击等级、狂暴等级、穿刺等级、法术伤害结果、治疗能力、速度</t>
+  </si>
+  <si>
+    <t>24+12+10</t>
+  </si>
+  <si>
+    <t>基础属性：(16—24)物理伤害或物理防御
+附加属性：(8-12)伤害、法术伤害、固定伤害、封印命中等级、法术暴击等级、物理暴击等级
+附加属性：(7-10)狂暴等级、穿刺等级、法术伤害结果、治疗能力、速度</t>
+  </si>
+  <si>
+    <t>30+15+12</t>
+  </si>
+  <si>
+    <t>基础属性：(20—30)物理伤害或物理防御
+附加属性：(10-15)伤害、法术伤害、固定伤害、封印命中等级、法术暴击等级、物理暴击等级
+附加属性：(8-12)狂暴等级、穿刺等级、法术伤害结果、治疗能力、速度</t>
+  </si>
+  <si>
+    <t>36+18+13</t>
+  </si>
+  <si>
+    <t>基础属性：(24—36)物理伤害或物理防御
+附加属性：(12-18)伤害、法术伤害、固定伤害、封印命中等级、法术暴击等级、物理暴击等级
+附加属性：(9-13)狂暴等级、穿刺等级、法术伤害结果、治疗能力、速度</t>
+  </si>
+  <si>
+    <t>42+21+15</t>
+  </si>
+  <si>
+    <t>基础属性：(28—42)物理伤害或物理防御
+附加属性：(14-21)伤害、法术伤害、固定伤害、封印命中等级、法术暴击等级、物理暴击等级
+附加属性：(10-15)狂暴等级、穿刺等级、法术伤害结果、治疗能力、速度</t>
+  </si>
+  <si>
+    <t>耳饰</t>
+  </si>
+  <si>
+    <t>基础属性：(12—18)法术伤害或法术防御
+附加属性：(6-9)伤害、法术伤害、固定伤害、封印命中等级、法术暴击等级、物理暴击等级、狂暴等级、穿刺等级、法术伤害结果、治疗能力、速度</t>
+  </si>
+  <si>
+    <t>基础属性：(16—24)法术伤害或法术防御
+附加属性：(8-12)伤害、法术伤害、固定伤害、封印命中等级、法术暴击等级、物理暴击等级
+附加属性：(7-10)狂暴等级、穿刺等级、法术伤害结果、治疗能力、速度</t>
+  </si>
+  <si>
+    <t>基础属性：(20—30)法术伤害或法术防御
+附加属性：(10-15)伤害、法术伤害、固定伤害、封印命中等级、法术暴击等级、物理暴击等级
+附加属性：(8-12)狂暴等级、穿刺等级、法术伤害结果、治疗能力、速度</t>
+  </si>
+  <si>
+    <t>基础属性：(24—36)法术伤害或法术防御
+附加属性：(12-18)伤害、法术伤害、固定伤害、封印命中等级、法术暴击等级、物理暴击等级
+附加属性：(9-13)狂暴等级、穿刺等级、法术伤害结果、治疗能力、速度</t>
+  </si>
+  <si>
+    <t>基础属性：(28—42)法术伤害或法术防御
+附加属性：(14-21)伤害、法术伤害、固定伤害、封印命中等级、法术暴击等级、物理暴击等级
+附加属性：(10-15)狂暴等级、穿刺等级、法术伤害结果、治疗能力、速度</t>
+  </si>
+  <si>
+    <t>佩饰</t>
+  </si>
+  <si>
+    <t>基础属性：(12—18)速度
+-----------------------------------------------
+附加属性　          属性范围     附加属性　　    　　属性范围 
+气血　　　　        42-63　      防御　　　　　　    12-18   
+气血回复效果        6-9             格挡值　　　   　    12-18   
+抵抗封印命中    　 12-18          法术防御　　　 　    12-18    
+抗物理暴击等级     12-18          抵法术暴击等级 　    12-18    
+-----------------------------------------------</t>
+  </si>
+  <si>
+    <t>基础属性：(14—21)的速度
+-----------------------------------------
+附加属性　　　属性范围　  附加属性　　　　属性范围
+气血　　　　　　56-84　　 防御　　　　　　16-24
+气血回复效果　　8-12　　    格挡值　　　　　16-24
+抵抗封印命中　　16-24　　  法术防御　　　　16-24
+抗物理暴击等级　16-24　　  抵法术暴击等级　16-24
+-----------------------------------------</t>
+  </si>
+  <si>
+    <t>基础属性：(16—24)的速度
+-----------------------------------------
+附加属性　　　属性范围　  附加属性　　　　 属性范围
+气血　　　　　　70-105　   防御　　　　　　 20-30
+气血回复效果　　10-15　　  格挡值　　　　　 20-30
+抵抗封印命中　　20-30　　 法术防御　　　　 20-30
+抗物理暴击等级　20-30　　 抵法术暴击等级　 20-30
+-----------------------------------------</t>
+  </si>
+  <si>
+    <t>基础属性：(18—27)的速度
+-----------------------------------------
+附加属性　　　  属性范围　附加属性　　　　 属性范围
+气血　　　　　　84-126　   防御　　　　　　 24-36
+气血回复效果　　12-18　　  格挡值　　　　　 24-36
+抵抗封印命中　　24-36　　 法术防御　　　　 24-36
+抗物理暴击等级　24-36　　 抵法术暴击等级　 24-36
+-----------------------------------------</t>
+  </si>
+  <si>
+    <t>基础属性：(20—30)的速度
+-----------------------------------------
+附加属性　　　  属性范围　 附加属性　　　　属性范围
+气血　　　　　　98-147　   防御　　　　　　 28-42
+气血回复效果　　14-21　　  格挡值　　　　　 28-42
+抵抗封印命中　　28-42　　 法术防御　　　　 28-42
+抗物理暴击等级　28-42　　 抵法术暴击等级　 28-42
+-----------------------------------------</t>
+  </si>
+  <si>
+    <t>手镯</t>
+  </si>
+  <si>
+    <t>基础属性：(12—18)封印命中或抗封等级
+----------------------------------------------
+附加属性　          属性范围     附加属性　　    　　属性范围 
+气血　　　　        42-63　      防御　　　　　　    12-18   
+气血回复效果        6-9             格挡值　　　   　    12-18   
+抵抗封印命中    　 12-18          法术防御　　　 　    12-18    
+抗物理暴击等级     12-18          抵法术暴击等级 　    12-18    
+---------------------------------------------</t>
+  </si>
+  <si>
+    <t>基础属性：(16—24)封印命中或抗封等级
+-----------------------------------------
+附加属性　　　属性范围　  附加属性　　　　属性范围
+气血　　　　　　56-84　　 防御　　　　　　16-24
+气血回复效果　　8-12　　    格挡值　　　　　16-24
+抵抗封印命中　　16-24　　  法术防御　　　　16-24
+抗物理暴击等级　16-24　　  抵法术暴击等级　16-24
+-----------------------------------------</t>
+  </si>
+  <si>
+    <t>基础属性：(20—30)封印命中或抗封等级
+-----------------------------------------
+附加属性　　　属性范围　  附加属性　　　　 属性范围
+气血　　　　　　70-105　   防御　　　　　　 20-30
+气血回复效果　　10-15　　  格挡值　　　　　 20-30
+抵抗封印命中　　20-30　　 法术防御　　　　 20-30
+抗物理暴击等级　20-30　　 抵法术暴击等级　 20-30
+-----------------------------------------</t>
+  </si>
+  <si>
+    <t>基础属性：(24—36)封印命中或抗封等级
+-----------------------------------------
+附加属性　　　  属性范围　附加属性　　　　 属性范围
+气血　　　　　　84-126　   防御　　　　　　 24-36
+气血回复效果　　12-18　　  格挡值　　　　　 24-36
+抵抗封印命中　　24-36　　 法术防御　　　　 24-36
+抗物理暴击等级　24-36　　 抵法术暴击等级　 24-36
+-----------------------------------------</t>
+  </si>
+  <si>
+    <t>基础属性：(28—42)封印命中或抗封等级
+------------------------------------------
+附加属性　　　  属性范围　 附加属性　　　　属性范围
+气血　　　　　　98-147　   防御　　　　　　 28-42
+气血回复效果　　14-21　　  格挡值　　　　　 28-42
+抵抗封印命中　　28-42　　 法术防御　　　　 28-42
+抗物理暴击等级　28-42　　 抵法术暴击等级　 28-42
+------------------------------------------</t>
   </si>
 </sst>
 </file>
@@ -596,7 +1208,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,8 +1219,46 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="华文新魏"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.25"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -955,7 +1605,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -975,6 +1625,58 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1096,150 +1798,192 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1555,2124 +2299,2124 @@
   <sheetPr/>
   <dimension ref="B1:F163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="K144" sqref="K144"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="H165" sqref="H165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.8181818181818" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="14" style="17" customWidth="1"/>
+    <col min="3" max="3" width="11.8173076923077" style="17" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:6">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="9">
         <v>58</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="9">
         <v>53</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="9">
         <v>37</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="9">
         <v>37</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="9">
         <v>33</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="9">
         <v>37</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="9">
         <v>28</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="9">
         <v>79</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="9">
         <v>14</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="9">
         <v>17</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="9">
         <v>15</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="9">
         <v>16</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="9">
         <v>6</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="9">
         <v>26</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="9">
         <v>90</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="9">
         <v>120</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="9">
         <v>120</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="9">
         <v>35</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="9">
         <v>382</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="9">
         <v>1.8</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="9">
         <v>4.5</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="9">
         <v>10</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="9">
         <v>20</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="9">
         <v>48</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="9">
         <v>80</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="9">
         <v>160</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="9">
         <v>330</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4">
+      <c r="D29" s="9"/>
+      <c r="E29" s="9">
         <v>36</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4">
+      <c r="D30" s="9"/>
+      <c r="E30" s="9">
         <v>74</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4">
+      <c r="D31" s="9"/>
+      <c r="E31" s="9">
         <v>160</v>
       </c>
-      <c r="F31" s="4"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="9">
         <v>10</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="9">
         <v>20</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="9">
         <v>41</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4">
+      <c r="D38" s="9"/>
+      <c r="E38" s="9">
         <v>5</v>
       </c>
-      <c r="F38" s="4"/>
+      <c r="F38" s="9"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4">
+      <c r="D39" s="9"/>
+      <c r="E39" s="9">
         <v>10</v>
       </c>
-      <c r="F39" s="4"/>
+      <c r="F39" s="9"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4">
+      <c r="D40" s="9"/>
+      <c r="E40" s="9">
         <v>21.6</v>
       </c>
-      <c r="F40" s="4"/>
+      <c r="F40" s="9"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4">
+      <c r="D41" s="9"/>
+      <c r="E41" s="9">
         <v>41</v>
       </c>
-      <c r="F41" s="4"/>
+      <c r="F41" s="9"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4">
+      <c r="D42" s="9"/>
+      <c r="E42" s="9">
         <v>175</v>
       </c>
-      <c r="F42" s="4"/>
+      <c r="F42" s="9"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4">
+      <c r="D43" s="9"/>
+      <c r="E43" s="9">
         <v>350</v>
       </c>
-      <c r="F43" s="4"/>
+      <c r="F43" s="9"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="9">
         <v>13.8</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="9">
         <v>32</v>
       </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4">
+      <c r="D50" s="9"/>
+      <c r="E50" s="9">
         <v>4</v>
       </c>
-      <c r="F50" s="4"/>
+      <c r="F50" s="9"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4">
+      <c r="D51" s="9"/>
+      <c r="E51" s="9">
         <v>8</v>
       </c>
-      <c r="F51" s="4"/>
+      <c r="F51" s="9"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4">
+      <c r="D52" s="9"/>
+      <c r="E52" s="9">
         <v>16</v>
       </c>
-      <c r="F52" s="4"/>
+      <c r="F52" s="9"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4">
+      <c r="D53" s="9"/>
+      <c r="E53" s="9">
         <v>34</v>
       </c>
-      <c r="F53" s="4"/>
+      <c r="F53" s="9"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4">
+      <c r="D54" s="9"/>
+      <c r="E54" s="9">
         <v>67</v>
       </c>
-      <c r="F54" s="4"/>
+      <c r="F54" s="9"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4">
+      <c r="D55" s="9"/>
+      <c r="E55" s="9">
         <v>135</v>
       </c>
-      <c r="F55" s="4"/>
+      <c r="F55" s="9"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4">
+      <c r="D56" s="9"/>
+      <c r="E56" s="9">
         <v>276</v>
       </c>
-      <c r="F56" s="4"/>
+      <c r="F56" s="9"/>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4">
+      <c r="D57" s="9"/>
+      <c r="E57" s="9">
         <v>578</v>
       </c>
-      <c r="F57" s="4"/>
+      <c r="F57" s="9"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4">
+      <c r="D58" s="9"/>
+      <c r="E58" s="9">
         <v>1140</v>
       </c>
-      <c r="F58" s="4"/>
+      <c r="F58" s="9"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="9">
         <v>10</v>
       </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="9">
         <v>18.25</v>
       </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="9">
         <v>0</v>
       </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="9">
         <v>75</v>
       </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4">
+      <c r="D65" s="9"/>
+      <c r="E65" s="9">
         <v>10</v>
       </c>
-      <c r="F65" s="4"/>
+      <c r="F65" s="9"/>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4">
+      <c r="D66" s="9"/>
+      <c r="E66" s="9">
         <v>18</v>
       </c>
-      <c r="F66" s="4"/>
+      <c r="F66" s="9"/>
     </row>
     <row r="67" spans="2:6">
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4">
+      <c r="D67" s="9"/>
+      <c r="E67" s="9">
         <v>36</v>
       </c>
-      <c r="F67" s="4"/>
+      <c r="F67" s="9"/>
     </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4">
+      <c r="D68" s="9"/>
+      <c r="E68" s="9">
         <v>73</v>
       </c>
-      <c r="F68" s="4"/>
+      <c r="F68" s="9"/>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4">
+      <c r="D69" s="9"/>
+      <c r="E69" s="9">
         <v>147</v>
       </c>
-      <c r="F69" s="4"/>
+      <c r="F69" s="9"/>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4">
+      <c r="D70" s="9"/>
+      <c r="E70" s="9">
         <v>297</v>
       </c>
-      <c r="F70" s="4"/>
+      <c r="F70" s="9"/>
     </row>
     <row r="71" spans="2:6">
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4">
+      <c r="D71" s="9"/>
+      <c r="E71" s="9">
         <v>618</v>
       </c>
-      <c r="F71" s="4"/>
+      <c r="F71" s="9"/>
     </row>
     <row r="72" spans="2:6">
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4">
+      <c r="D72" s="9"/>
+      <c r="E72" s="9">
         <v>1400</v>
       </c>
-      <c r="F72" s="4"/>
+      <c r="F72" s="9"/>
     </row>
     <row r="73" spans="2:6">
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4">
+      <c r="D73" s="9"/>
+      <c r="E73" s="9">
         <v>3599</v>
       </c>
-      <c r="F73" s="4"/>
+      <c r="F73" s="9"/>
     </row>
     <row r="74" spans="2:6">
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="9">
         <v>0</v>
       </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
     </row>
     <row r="75" spans="2:6">
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="9">
         <v>16</v>
       </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="9">
         <v>32</v>
       </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4">
+      <c r="D77" s="9"/>
+      <c r="E77" s="9">
         <v>4</v>
       </c>
-      <c r="F77" s="4"/>
+      <c r="F77" s="9"/>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4">
+      <c r="D78" s="9"/>
+      <c r="E78" s="9">
         <v>8</v>
       </c>
-      <c r="F78" s="4"/>
+      <c r="F78" s="9"/>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4">
+      <c r="D79" s="9"/>
+      <c r="E79" s="9">
         <v>22</v>
       </c>
-      <c r="F79" s="4"/>
+      <c r="F79" s="9"/>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4">
+      <c r="D80" s="9"/>
+      <c r="E80" s="9">
         <v>36</v>
       </c>
-      <c r="F80" s="4"/>
+      <c r="F80" s="9"/>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4">
+      <c r="D81" s="9"/>
+      <c r="E81" s="9">
         <v>73</v>
       </c>
-      <c r="F81" s="4"/>
+      <c r="F81" s="9"/>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4">
+      <c r="D82" s="9"/>
+      <c r="E82" s="9">
         <v>145</v>
       </c>
-      <c r="F82" s="4"/>
+      <c r="F82" s="9"/>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4">
+      <c r="D83" s="9"/>
+      <c r="E83" s="9">
         <v>290</v>
       </c>
-      <c r="F83" s="4"/>
+      <c r="F83" s="9"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4">
+      <c r="D84" s="9"/>
+      <c r="E84" s="9">
         <v>598</v>
       </c>
-      <c r="F84" s="4"/>
+      <c r="F84" s="9"/>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4">
+      <c r="D85" s="9"/>
+      <c r="E85" s="9">
         <v>1238</v>
       </c>
-      <c r="F85" s="4"/>
+      <c r="F85" s="9"/>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="9">
         <v>6</v>
       </c>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="9">
         <v>12</v>
       </c>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="9">
         <v>24</v>
       </c>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="9">
         <v>48</v>
       </c>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
     </row>
     <row r="91" spans="2:6">
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4">
+      <c r="D91" s="9"/>
+      <c r="E91" s="9">
         <v>7.5</v>
       </c>
-      <c r="F91" s="4"/>
+      <c r="F91" s="9"/>
     </row>
     <row r="92" spans="2:6">
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4">
+      <c r="D92" s="9"/>
+      <c r="E92" s="9">
         <v>13</v>
       </c>
-      <c r="F92" s="4"/>
+      <c r="F92" s="9"/>
     </row>
     <row r="93" spans="2:6">
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4">
+      <c r="D93" s="9"/>
+      <c r="E93" s="9">
         <v>26</v>
       </c>
-      <c r="F93" s="4"/>
+      <c r="F93" s="9"/>
     </row>
     <row r="94" spans="2:6">
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4">
+      <c r="D94" s="9"/>
+      <c r="E94" s="9">
         <v>54</v>
       </c>
-      <c r="F94" s="4"/>
+      <c r="F94" s="9"/>
     </row>
     <row r="95" spans="2:6">
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4">
+      <c r="D95" s="9"/>
+      <c r="E95" s="9">
         <v>106</v>
       </c>
-      <c r="F95" s="4"/>
+      <c r="F95" s="9"/>
     </row>
     <row r="96" spans="2:6">
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4">
+      <c r="D96" s="9"/>
+      <c r="E96" s="9">
         <v>218</v>
       </c>
-      <c r="F96" s="4"/>
+      <c r="F96" s="9"/>
     </row>
     <row r="97" spans="2:6">
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4">
+      <c r="D97" s="9"/>
+      <c r="E97" s="9">
         <v>458</v>
       </c>
-      <c r="F97" s="4"/>
+      <c r="F97" s="9"/>
     </row>
     <row r="98" spans="2:6">
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4">
+      <c r="D98" s="9"/>
+      <c r="E98" s="9">
         <v>1010</v>
       </c>
-      <c r="F98" s="4"/>
+      <c r="F98" s="9"/>
     </row>
     <row r="99" spans="2:6">
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4">
+      <c r="D99" s="9"/>
+      <c r="E99" s="9">
         <v>2599</v>
       </c>
-      <c r="F99" s="4"/>
+      <c r="F99" s="9"/>
     </row>
     <row r="100" spans="2:6">
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4">
+      <c r="D100" s="9"/>
+      <c r="E100" s="9">
         <v>5799</v>
       </c>
-      <c r="F100" s="4"/>
+      <c r="F100" s="9"/>
     </row>
     <row r="101" spans="2:6">
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D101" s="9">
         <v>12.2</v>
       </c>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
     </row>
     <row r="102" spans="2:6">
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D102" s="9">
         <v>39</v>
       </c>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
     </row>
     <row r="103" spans="2:6">
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D103" s="9">
         <v>144</v>
       </c>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
     </row>
     <row r="104" spans="2:6">
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104" s="9">
         <v>380</v>
       </c>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
     </row>
     <row r="105" spans="2:6">
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D105" s="9">
         <v>1140</v>
       </c>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
     </row>
     <row r="106" spans="2:6">
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D106" s="4">
+      <c r="D106" s="9">
         <v>3420</v>
       </c>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
     </row>
     <row r="107" spans="2:6">
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4">
+      <c r="D107" s="9"/>
+      <c r="E107" s="9">
         <v>748</v>
       </c>
-      <c r="F107" s="4"/>
+      <c r="F107" s="9"/>
     </row>
     <row r="108" spans="2:6">
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4">
+      <c r="D108" s="9"/>
+      <c r="E108" s="9">
         <v>2199</v>
       </c>
-      <c r="F108" s="4"/>
+      <c r="F108" s="9"/>
     </row>
     <row r="109" spans="2:6">
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4">
+      <c r="D109" s="9"/>
+      <c r="E109" s="9">
         <v>6999</v>
       </c>
-      <c r="F109" s="4"/>
+      <c r="F109" s="9"/>
     </row>
     <row r="110" spans="2:6">
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D110" s="4">
+      <c r="D110" s="9">
         <v>0</v>
       </c>
-      <c r="E110" s="4">
+      <c r="E110" s="9">
         <v>0</v>
       </c>
-      <c r="F110" s="4"/>
+      <c r="F110" s="9"/>
     </row>
     <row r="111" spans="2:6">
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D111" s="4">
+      <c r="D111" s="9">
         <v>4.5</v>
       </c>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
     </row>
     <row r="112" spans="2:6">
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D112" s="9">
         <v>10</v>
       </c>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D113" s="4">
+      <c r="D113" s="9">
         <v>11</v>
       </c>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
     </row>
     <row r="114" spans="2:6">
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D114" s="4">
+      <c r="D114" s="9">
         <v>15</v>
       </c>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
     </row>
     <row r="115" spans="2:6">
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D115" s="9">
         <v>19</v>
       </c>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
     </row>
     <row r="116" spans="2:6">
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D116" s="9">
         <v>27</v>
       </c>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
     </row>
     <row r="117" spans="2:6">
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D117" s="4">
+      <c r="D117" s="9">
         <v>27</v>
       </c>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
     </row>
     <row r="118" spans="2:6">
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D118" s="4">
+      <c r="D118" s="9">
         <v>53</v>
       </c>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
     </row>
     <row r="119" spans="2:6">
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D119" s="4">
+      <c r="D119" s="9">
         <v>130</v>
       </c>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
     </row>
     <row r="120" spans="2:6">
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D120" s="4">
+      <c r="D120" s="9">
         <v>350</v>
       </c>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
     </row>
     <row r="121" spans="2:6">
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D121" s="4">
+      <c r="D121" s="9">
         <v>500</v>
       </c>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
     </row>
     <row r="122" spans="2:6">
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D122" s="4">
+      <c r="D122" s="9">
         <v>1100</v>
       </c>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
     </row>
     <row r="123" spans="2:6">
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D123" s="4">
+      <c r="D123" s="9">
         <v>30</v>
       </c>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
     </row>
     <row r="124" spans="2:6">
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D124" s="4">
+      <c r="D124" s="9">
         <v>17</v>
       </c>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
     </row>
     <row r="125" spans="2:6">
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D125" s="4">
+      <c r="D125" s="9">
         <v>10</v>
       </c>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
     </row>
     <row r="126" spans="2:6">
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D126" s="4">
+      <c r="D126" s="9">
         <v>10</v>
       </c>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
     </row>
     <row r="127" spans="2:6">
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D127" s="4">
+      <c r="D127" s="9">
         <v>3</v>
       </c>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
     </row>
     <row r="128" spans="2:6">
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D128" s="4">
+      <c r="D128" s="9">
         <v>5</v>
       </c>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
     </row>
     <row r="129" spans="2:6">
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D129" s="4">
+      <c r="D129" s="9">
         <v>11</v>
       </c>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
     </row>
     <row r="130" spans="2:6">
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C130" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D130" s="4">
+      <c r="D130" s="9">
         <v>15</v>
       </c>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
     </row>
     <row r="131" spans="2:6">
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D131" s="4">
+      <c r="D131" s="9">
         <v>20</v>
       </c>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
     </row>
     <row r="132" spans="2:6">
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C132" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D132" s="4">
+      <c r="D132" s="9">
         <v>35</v>
       </c>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
     </row>
     <row r="133" spans="2:6">
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D133" s="4">
+      <c r="D133" s="9">
         <v>40</v>
       </c>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
     </row>
     <row r="134" spans="2:6">
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C134" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D134" s="4">
+      <c r="D134" s="9">
         <v>150</v>
       </c>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
     </row>
     <row r="135" spans="2:6">
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D135" s="4">
+      <c r="D135" s="9">
         <v>185</v>
       </c>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
     </row>
     <row r="136" spans="2:6">
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C136" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D136" s="4">
+      <c r="D136" s="9">
         <v>190</v>
       </c>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
     </row>
     <row r="137" spans="2:6">
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C137" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D137" s="4">
+      <c r="D137" s="9">
         <v>2100</v>
       </c>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
     </row>
     <row r="138" spans="2:6">
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C138" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D138" s="4">
+      <c r="D138" s="9">
         <v>0</v>
       </c>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
     </row>
     <row r="139" spans="2:6">
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C139" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="D139" s="4">
+      <c r="D139" s="9">
         <v>40</v>
       </c>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
     </row>
     <row r="140" spans="2:6">
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C140" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D140" s="4">
+      <c r="D140" s="9">
         <v>180</v>
       </c>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
     </row>
     <row r="141" spans="2:6">
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C141" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D141" s="4">
+      <c r="D141" s="9">
         <v>300</v>
       </c>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
     </row>
     <row r="142" spans="2:6">
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C142" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4">
+      <c r="D142" s="9"/>
+      <c r="E142" s="9">
         <v>43</v>
       </c>
-      <c r="F142" s="4"/>
+      <c r="F142" s="9"/>
     </row>
     <row r="143" spans="2:6">
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C143" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4">
+      <c r="D143" s="9"/>
+      <c r="E143" s="9">
         <v>43.5</v>
       </c>
-      <c r="F143" s="4"/>
+      <c r="F143" s="9"/>
     </row>
     <row r="144" spans="2:6">
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C144" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D144" s="4">
+      <c r="D144" s="9">
         <v>110</v>
       </c>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
     </row>
     <row r="145" spans="2:6">
-      <c r="B145" s="4" t="s">
+      <c r="B145" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C145" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D145" s="4">
+      <c r="D145" s="9">
         <v>380</v>
       </c>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
     </row>
     <row r="146" spans="2:6">
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C146" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="D146" s="4">
+      <c r="D146" s="9">
         <v>44.8</v>
       </c>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
     </row>
     <row r="147" spans="2:6">
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C147" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D147" s="4">
+      <c r="D147" s="9">
         <v>100</v>
       </c>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
     </row>
     <row r="148" spans="2:6">
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C148" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D148" s="4">
+      <c r="D148" s="9">
         <v>136</v>
       </c>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
     </row>
     <row r="149" spans="2:6">
-      <c r="B149" s="4" t="s">
+      <c r="B149" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C149" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="D149" s="4">
+      <c r="D149" s="9">
         <v>150</v>
       </c>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
     </row>
     <row r="150" spans="2:6">
-      <c r="B150" s="4" t="s">
+      <c r="B150" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C150" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="D150" s="4">
+      <c r="D150" s="9">
         <v>280</v>
       </c>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
     </row>
     <row r="151" spans="2:6">
-      <c r="B151" s="4" t="s">
+      <c r="B151" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C151" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4">
+      <c r="D151" s="9"/>
+      <c r="E151" s="9">
         <v>47</v>
       </c>
-      <c r="F151" s="4"/>
+      <c r="F151" s="9"/>
     </row>
     <row r="152" spans="2:6">
-      <c r="B152" s="4" t="s">
+      <c r="B152" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C152" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4">
+      <c r="D152" s="9"/>
+      <c r="E152" s="9">
         <v>84</v>
       </c>
-      <c r="F152" s="4"/>
+      <c r="F152" s="9"/>
     </row>
     <row r="153" spans="2:6">
-      <c r="B153" s="4" t="s">
+      <c r="B153" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C153" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4">
+      <c r="D153" s="9"/>
+      <c r="E153" s="9">
         <v>105</v>
       </c>
-      <c r="F153" s="4"/>
+      <c r="F153" s="9"/>
     </row>
     <row r="154" spans="2:6">
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C154" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="D154" s="4">
+      <c r="D154" s="9">
         <v>30</v>
       </c>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
     </row>
     <row r="155" spans="2:6">
-      <c r="B155" s="4" t="s">
+      <c r="B155" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C155" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="D155" s="4">
+      <c r="D155" s="9">
         <v>60</v>
       </c>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
     </row>
     <row r="156" spans="2:6">
-      <c r="B156" s="4" t="s">
+      <c r="B156" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C156" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D156" s="4">
+      <c r="D156" s="9">
         <v>100</v>
       </c>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
     </row>
     <row r="157" spans="2:6">
-      <c r="B157" s="4" t="s">
+      <c r="B157" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C157" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D157" s="4">
+      <c r="D157" s="9">
         <v>0</v>
       </c>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
     </row>
     <row r="158" spans="2:6">
-      <c r="B158" s="4" t="s">
+      <c r="B158" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C158" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D158" s="4">
+      <c r="D158" s="9">
         <v>400</v>
       </c>
-      <c r="E158" s="4"/>
-      <c r="F158" s="4"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
     </row>
     <row r="159" spans="2:6">
-      <c r="B159" s="4" t="s">
+      <c r="B159" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="C159" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="D159" s="4">
+      <c r="D159" s="9">
         <v>30</v>
       </c>
-      <c r="E159" s="4"/>
-      <c r="F159" s="4"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
     </row>
     <row r="160" spans="2:6">
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C160" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D160" s="4">
+      <c r="D160" s="9">
         <v>60</v>
       </c>
-      <c r="E160" s="4"/>
-      <c r="F160" s="4"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
     </row>
     <row r="161" spans="2:6">
-      <c r="B161" s="4" t="s">
+      <c r="B161" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C161" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="D161" s="4">
+      <c r="D161" s="9">
         <v>100</v>
       </c>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
     </row>
     <row r="162" spans="2:6">
-      <c r="B162" s="4" t="s">
+      <c r="B162" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C162" s="4" t="s">
+      <c r="C162" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D162" s="4">
+      <c r="D162" s="9">
         <v>100</v>
       </c>
-      <c r="E162" s="4"/>
-      <c r="F162" s="4"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
     </row>
     <row r="163" spans="2:6">
-      <c r="B163" s="4" t="s">
+      <c r="B163" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="C163" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D163" s="4"/>
-      <c r="E163" s="4">
+      <c r="D163" s="9"/>
+      <c r="E163" s="9">
         <v>28</v>
       </c>
-      <c r="F163" s="4"/>
+      <c r="F163" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3684,14 +4428,2066 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:O163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="4" max="4" width="35.5673076923077" customWidth="1"/>
+    <col min="5" max="5" width="115.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="34" spans="1:6">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="3">
+        <v>472.6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" ht="34.75" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="3">
+        <v>529.6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" ht="34.75" spans="1:15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="3">
+        <v>586.6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+    </row>
+    <row r="5" ht="34.75" spans="1:15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="3">
+        <v>643.3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" ht="34.75" spans="1:15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="3">
+        <v>700.3</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" ht="34.75" spans="1:15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="3">
+        <v>757.3</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" ht="34.75" spans="1:15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="3">
+        <v>813.3</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="13"/>
+    </row>
+    <row r="9" ht="34.75" spans="1:15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="3">
+        <v>870</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" ht="31" customHeight="1" spans="1:15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="3">
+        <v>926</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" ht="17.55" spans="1:15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="3">
+        <v>340</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="14"/>
+    </row>
+    <row r="12" ht="17.55" spans="1:15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="3">
+        <v>320</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" ht="17.55" spans="1:15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="3">
+        <v>300</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" ht="17.55" spans="1:15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" s="3">
+        <v>279</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" ht="17.55" spans="1:15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="3">
+        <v>259</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="13"/>
+    </row>
+    <row r="16" ht="18" customHeight="1" spans="1:15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" s="3">
+        <v>238</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" ht="17.55" spans="1:15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="3">
+        <v>218</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="12"/>
+    </row>
+    <row r="18" ht="17.55" spans="1:15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="3">
+        <v>197</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="14"/>
+    </row>
+    <row r="19" ht="17.55" spans="1:15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D19" s="3">
+        <v>177</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" ht="17.55" spans="1:15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="12"/>
+    </row>
+    <row r="21" ht="17.55" spans="1:15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="12"/>
+    </row>
+    <row r="22" ht="17.55" spans="1:15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="13"/>
+    </row>
+    <row r="23" ht="29.5" customHeight="1" spans="1:15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="12"/>
+    </row>
+    <row r="24" ht="17.55" spans="1:15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="12"/>
+    </row>
+    <row r="25" ht="17.55" spans="1:15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="14"/>
+    </row>
+    <row r="26" ht="17.55" spans="1:15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" ht="17.55" spans="1:15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="12"/>
+    </row>
+    <row r="28" ht="17.55" spans="1:15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="12"/>
+    </row>
+    <row r="29" ht="17.55" spans="1:15">
+      <c r="A29" s="1"/>
+      <c r="B29" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D29" s="3">
+        <v>267</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="13"/>
+    </row>
+    <row r="30" ht="29.5" customHeight="1" spans="1:15">
+      <c r="A30" s="1"/>
+      <c r="B30" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D30" s="3">
+        <v>252</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="12"/>
+    </row>
+    <row r="31" ht="17.55" spans="1:15">
+      <c r="A31" s="1"/>
+      <c r="B31" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D31" s="3">
+        <v>235</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" ht="17.55" spans="1:15">
+      <c r="A32" s="1"/>
+      <c r="B32" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D32" s="3">
+        <v>219</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="14"/>
+    </row>
+    <row r="33" ht="17.55" spans="1:15">
+      <c r="A33" s="1"/>
+      <c r="B33" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D33" s="3">
+        <v>202</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="11"/>
+    </row>
+    <row r="34" ht="17.55" spans="1:15">
+      <c r="A34" s="1"/>
+      <c r="B34" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D34" s="3">
+        <v>186</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="12"/>
+    </row>
+    <row r="35" ht="17.55" spans="1:15">
+      <c r="A35" s="1"/>
+      <c r="B35" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D35" s="3">
+        <v>170</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="12"/>
+    </row>
+    <row r="36" ht="17.55" spans="1:15">
+      <c r="A36" s="1"/>
+      <c r="B36" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D36" s="3">
+        <v>153</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="13"/>
+    </row>
+    <row r="37" ht="29.5" customHeight="1" spans="1:15">
+      <c r="A37" s="1"/>
+      <c r="B37" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D37" s="3">
+        <v>137</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="12"/>
+    </row>
+    <row r="38" ht="17.55" spans="1:15">
+      <c r="A38" s="1"/>
+      <c r="B38" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="12"/>
+    </row>
+    <row r="39" ht="17.55" spans="1:15">
+      <c r="A39" s="1"/>
+      <c r="B39" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="14"/>
+    </row>
+    <row r="40" ht="17.55" spans="1:15">
+      <c r="A40" s="1"/>
+      <c r="B40" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="11"/>
+    </row>
+    <row r="41" ht="17.55" spans="1:15">
+      <c r="A41" s="1"/>
+      <c r="B41" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="12"/>
+    </row>
+    <row r="42" ht="17.55" spans="1:15">
+      <c r="A42" s="1"/>
+      <c r="B42" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="14"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1"/>
+      <c r="B43" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1"/>
+      <c r="B44" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1"/>
+      <c r="B45" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1"/>
+      <c r="B46" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1"/>
+      <c r="B47" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1"/>
+      <c r="B48" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1"/>
+      <c r="B49" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1"/>
+      <c r="B50" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1"/>
+      <c r="B51" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1"/>
+      <c r="B52" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1"/>
+      <c r="B53" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1"/>
+      <c r="B54" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1"/>
+      <c r="B55" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" ht="51" spans="1:6">
+      <c r="A56" s="1"/>
+      <c r="B56" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" ht="51" spans="1:6">
+      <c r="A57" s="1"/>
+      <c r="B57" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" ht="51" spans="1:6">
+      <c r="A58" s="1"/>
+      <c r="B58" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" ht="51" spans="1:6">
+      <c r="A59" s="1"/>
+      <c r="B59" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" ht="51" spans="1:6">
+      <c r="A60" s="1"/>
+      <c r="B60" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" ht="51" spans="1:6">
+      <c r="A61" s="1"/>
+      <c r="B61" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" ht="51" spans="1:6">
+      <c r="A62" s="1"/>
+      <c r="B62" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F62" s="9"/>
+    </row>
+    <row r="63" ht="51" spans="1:6">
+      <c r="A63" s="1"/>
+      <c r="B63" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="F63" s="9"/>
+    </row>
+    <row r="64" ht="51" spans="1:6">
+      <c r="A64" s="1"/>
+      <c r="B64" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="F64" s="9"/>
+    </row>
+    <row r="65" ht="51" spans="1:6">
+      <c r="A65" s="1"/>
+      <c r="B65" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="F65" s="9"/>
+    </row>
+    <row r="66" ht="135" spans="1:6">
+      <c r="A66" s="1"/>
+      <c r="B66" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D66" s="9">
+        <v>18</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F66" s="9"/>
+    </row>
+    <row r="67" ht="135" spans="1:6">
+      <c r="A67" s="1"/>
+      <c r="B67" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D67" s="9">
+        <v>21</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" ht="135" spans="1:6">
+      <c r="A68" s="1"/>
+      <c r="B68" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D68" s="9">
+        <v>24</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="F68" s="9"/>
+    </row>
+    <row r="69" ht="135" spans="1:6">
+      <c r="A69" s="1"/>
+      <c r="B69" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D69" s="9">
+        <v>27</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F69" s="9"/>
+    </row>
+    <row r="70" ht="135" spans="1:6">
+      <c r="A70" s="1"/>
+      <c r="B70" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D70" s="9">
+        <v>30</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="F70" s="9"/>
+    </row>
+    <row r="71" ht="135" spans="1:6">
+      <c r="A71" s="1"/>
+      <c r="B71" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D71" s="9">
+        <v>18</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="F71" s="9"/>
+    </row>
+    <row r="72" ht="135" spans="1:6">
+      <c r="A72" s="1"/>
+      <c r="B72" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D72" s="9">
+        <v>24</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="F72" s="9"/>
+    </row>
+    <row r="73" ht="135" spans="1:10">
+      <c r="A73" s="1"/>
+      <c r="B73" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D73" s="9">
+        <v>30</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="F73" s="9"/>
+      <c r="J73" s="15"/>
+    </row>
+    <row r="74" ht="135" spans="1:10">
+      <c r="A74" s="1"/>
+      <c r="B74" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D74" s="9">
+        <v>36</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="F74" s="9"/>
+      <c r="J74" s="16"/>
+    </row>
+    <row r="75" ht="135" spans="1:10">
+      <c r="A75" s="1"/>
+      <c r="B75" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D75" s="9">
+        <v>42</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="F75" s="9"/>
+      <c r="J75" s="16"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="J76" s="16"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="J77" s="16"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="J78" s="16"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="J79" s="16"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="J80" s="16"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="J81" s="16"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="J82" s="16"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1"/>
+      <c r="B137" s="9"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1"/>
+      <c r="B138" s="9"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1"/>
+      <c r="B140" s="9"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1"/>
+      <c r="B141" s="9"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1"/>
+      <c r="B142" s="9"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1"/>
+      <c r="B146" s="9"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1"/>
+      <c r="B147" s="9"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1"/>
+      <c r="B148" s="9"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1"/>
+      <c r="B149" s="9"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1"/>
+      <c r="B150" s="9"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1"/>
+      <c r="B151" s="9"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1"/>
+      <c r="B152" s="9"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1"/>
+      <c r="B153" s="9"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1"/>
+      <c r="B154" s="9"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1"/>
+      <c r="B155" s="9"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1"/>
+      <c r="B156" s="9"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1"/>
+      <c r="B157" s="9"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1"/>
+      <c r="B158" s="9"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1"/>
+      <c r="B159" s="9"/>
+      <c r="C159" s="9"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1"/>
+      <c r="B160" s="9"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1"/>
+      <c r="B161" s="9"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1"/>
+      <c r="B162" s="9"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1"/>
+      <c r="B163" s="9"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="M5:M11"/>
+    <mergeCell ref="M12:M18"/>
+    <mergeCell ref="M19:M25"/>
+    <mergeCell ref="M26:M32"/>
+    <mergeCell ref="M33:M39"/>
+    <mergeCell ref="M40:M42"/>
+    <mergeCell ref="N5:N11"/>
+    <mergeCell ref="N12:N18"/>
+    <mergeCell ref="N19:N25"/>
+    <mergeCell ref="N26:N32"/>
+    <mergeCell ref="N33:N39"/>
+    <mergeCell ref="N40:N42"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -3704,10 +6500,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
